--- a/docs/DataDictionary.xlsx
+++ b/docs/DataDictionary.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="16380" windowHeight="8130" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="datasets" sheetId="2" r:id="rId2"/>
+    <sheet name="wnv.trap.date.rev2" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -20,163 +21,703 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="49">
-  <si>
-    <t xml:space="preserve">Data ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dataset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Complexity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Variety</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Availability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chicago Department of Public Health</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mosquito trap and West Nile Virus, 2007-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27000 records over 11 years with location, mosquito species, and presence of west nile virus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">National Oceanic and Atmospheric Administration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily weather data, 2007-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily precipitation and high/low/average temperature readings for Chicago and surrounding areas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Webscraping or Satellite Imagery Analysis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geospatial Water Body Information</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Locations and metadata of water bodies and marshlands for Chicago and surrounding areas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unknown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aviary data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bird population and death rates by location for Chicago and surrounding areas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United States Census Bureau’s American Community Survey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sociodemographic data, 2007-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poverty rates, socioeconomic status, education status, unemployment status over 11 years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cook County Data Portal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geospatial Hospital &amp; School Locations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Locations of hospitals, schools, and senior assisted living facilities to characterize areas of highly vulnerable populations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Financial Data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Financial impact of West Nile Virus: estimated per-infection treatment costs, spraying and prevention costs, impact on businesses and local economy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Key --→&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;100MB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No preprocessing required for consumption</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Numerical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Some risk in availablity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100-500MB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Some preprocessing required for consumption</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Numerical + Categorical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quality, not vetted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partially Available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">500-1GB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Substantial preprocessing &amp; preparation required</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Temporal + Numerical + Categorical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Available, not vetted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1GB+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Substantial &amp; complex data munging required</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spacio-temporal + Numerical + Categorical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">High Quality &amp; vetted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Available &amp; vetted</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="230">
+  <si>
+    <t>Data ID</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Dataset</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>Complexity</t>
+  </si>
+  <si>
+    <t>Variety</t>
+  </si>
+  <si>
+    <t>Quality</t>
+  </si>
+  <si>
+    <t>Availability</t>
+  </si>
+  <si>
+    <t>Chicago Department of Public Health</t>
+  </si>
+  <si>
+    <t>Mosquito trap and West Nile Virus, 2007-2018</t>
+  </si>
+  <si>
+    <t>27000 records over 11 years with location, mosquito species, and presence of west nile virus</t>
+  </si>
+  <si>
+    <t>National Oceanic and Atmospheric Administration</t>
+  </si>
+  <si>
+    <t>Daily weather data, 2007-2018</t>
+  </si>
+  <si>
+    <t>Daily precipitation and high/low/average temperature readings for Chicago and surrounding areas</t>
+  </si>
+  <si>
+    <t>Webscraping or Satellite Imagery Analysis</t>
+  </si>
+  <si>
+    <t>Geospatial Water Body Information</t>
+  </si>
+  <si>
+    <t>Locations and metadata of water bodies and marshlands for Chicago and surrounding areas</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>Aviary data</t>
+  </si>
+  <si>
+    <t>Bird population and death rates by location for Chicago and surrounding areas</t>
+  </si>
+  <si>
+    <t>United States Census Bureau’s American Community Survey</t>
+  </si>
+  <si>
+    <t>Sociodemographic data, 2007-2018</t>
+  </si>
+  <si>
+    <t>Poverty rates, socioeconomic status, education status, unemployment status over 11 years</t>
+  </si>
+  <si>
+    <t>Cook County Data Portal</t>
+  </si>
+  <si>
+    <t>Geospatial Hospital &amp; School Locations</t>
+  </si>
+  <si>
+    <t>Locations of hospitals, schools, and senior assisted living facilities to characterize areas of highly vulnerable populations</t>
+  </si>
+  <si>
+    <t>Financial Data</t>
+  </si>
+  <si>
+    <t>Financial impact of West Nile Virus: estimated per-infection treatment costs, spraying and prevention costs, impact on businesses and local economy</t>
+  </si>
+  <si>
+    <t>Key --→&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>&lt;100MB</t>
+  </si>
+  <si>
+    <t>No preprocessing required for consumption</t>
+  </si>
+  <si>
+    <t>Numerical</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>Some risk in availablity</t>
+  </si>
+  <si>
+    <t>100-500MB</t>
+  </si>
+  <si>
+    <t>Some preprocessing required for consumption</t>
+  </si>
+  <si>
+    <t>Numerical + Categorical</t>
+  </si>
+  <si>
+    <t>Quality, not vetted</t>
+  </si>
+  <si>
+    <t>Partially Available</t>
+  </si>
+  <si>
+    <t>500-1GB</t>
+  </si>
+  <si>
+    <t>Substantial preprocessing &amp; preparation required</t>
+  </si>
+  <si>
+    <t>Temporal + Numerical + Categorical</t>
+  </si>
+  <si>
+    <t>Available, not vetted</t>
+  </si>
+  <si>
+    <t>1GB+</t>
+  </si>
+  <si>
+    <t>Substantial &amp; complex data munging required</t>
+  </si>
+  <si>
+    <t>Spacio-temporal + Numerical + Categorical</t>
+  </si>
+  <si>
+    <t>High Quality &amp; vetted</t>
+  </si>
+  <si>
+    <t>Available &amp; vetted</t>
+  </si>
+  <si>
+    <t>folder</t>
+  </si>
+  <si>
+    <t>raw</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>building_violations</t>
+  </si>
+  <si>
+    <t>BlkGrp.date.violations</t>
+  </si>
+  <si>
+    <t>Building_Violations</t>
+  </si>
+  <si>
+    <t>CommArea</t>
+  </si>
+  <si>
+    <t>google_trends</t>
+  </si>
+  <si>
+    <t>processed</t>
+  </si>
+  <si>
+    <t>noaa.weather.stations</t>
+  </si>
+  <si>
+    <t>noaa.weather.top20stn</t>
+  </si>
+  <si>
+    <t>Ohare_Climate</t>
+  </si>
+  <si>
+    <t>ref.dates</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>train</t>
+  </si>
+  <si>
+    <t>validate</t>
+  </si>
+  <si>
+    <t>wnv.trap.date</t>
+  </si>
+  <si>
+    <t>wnv.trap.date.rev2</t>
+  </si>
+  <si>
+    <t>wnv.traps</t>
+  </si>
+  <si>
+    <t>chi.weather.v1</t>
+  </si>
+  <si>
+    <t>filetype(s)</t>
+  </si>
+  <si>
+    <t>csv</t>
+  </si>
+  <si>
+    <t>csv, RData</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>subset of "wnv.trap.date.rev2"</t>
+  </si>
+  <si>
+    <t>mosquito-trap level dataset; one row per trap; columns are fixed characteristics of traps (e.g. location, neighborhood and neighborhood characteristics, etc.)</t>
+  </si>
+  <si>
+    <t>data level</t>
+  </si>
+  <si>
+    <t>one row per date</t>
+  </si>
+  <si>
+    <t>one row per trap</t>
+  </si>
+  <si>
+    <t>one row per trap per date</t>
+  </si>
+  <si>
+    <t>RData</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>yr</t>
+  </si>
+  <si>
+    <t>mo</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>qtr</t>
+  </si>
+  <si>
+    <t>wk</t>
+  </si>
+  <si>
+    <t>day.of.yr</t>
+  </si>
+  <si>
+    <t>day.of.wk</t>
+  </si>
+  <si>
+    <t>day.of.wk.name</t>
+  </si>
+  <si>
+    <t>eval.day</t>
+  </si>
+  <si>
+    <t>eval.wk</t>
+  </si>
+  <si>
+    <t>partition</t>
+  </si>
+  <si>
+    <t>trap.name</t>
+  </si>
+  <si>
+    <t>lat</t>
+  </si>
+  <si>
+    <t>lng</t>
+  </si>
+  <si>
+    <t>lat.lng.src</t>
+  </si>
+  <si>
+    <t>satellite.ind</t>
+  </si>
+  <si>
+    <t>ZCTA5CE10</t>
+  </si>
+  <si>
+    <t>BlkGrp.geoid</t>
+  </si>
+  <si>
+    <t>Tract.geoid</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>zone_class</t>
+  </si>
+  <si>
+    <t>zone_type</t>
+  </si>
+  <si>
+    <t>LT_HS_pct__BlkGrp2017</t>
+  </si>
+  <si>
+    <t>median_HHInc__BlkGrp2017</t>
+  </si>
+  <si>
+    <t>LT_Pov_pct__BlkGrp2017</t>
+  </si>
+  <si>
+    <t>LT_HS_pct__Tract2017</t>
+  </si>
+  <si>
+    <t>median_HHInc__Tract2017</t>
+  </si>
+  <si>
+    <t>LT_Pov_pct__Tract2017</t>
+  </si>
+  <si>
+    <t>trap_type</t>
+  </si>
+  <si>
+    <t>erraticus.NumMosquitos</t>
+  </si>
+  <si>
+    <t>pipiens.NumMosquitos</t>
+  </si>
+  <si>
+    <t>pipiens_restuans.NumMosquitos</t>
+  </si>
+  <si>
+    <t>restuans.NumMosquitos</t>
+  </si>
+  <si>
+    <t>salinarius.NumMosquitos</t>
+  </si>
+  <si>
+    <t>tarsalis.NumMosquitos</t>
+  </si>
+  <si>
+    <t>territans.NumMosquitos</t>
+  </si>
+  <si>
+    <t>unspecified.NumMosquitos</t>
+  </si>
+  <si>
+    <t>tot.NumMosquitos</t>
+  </si>
+  <si>
+    <t>erraticus.WnvPresent</t>
+  </si>
+  <si>
+    <t>pipiens.WnvPresent</t>
+  </si>
+  <si>
+    <t>pipiens_restuans.WnvPresent</t>
+  </si>
+  <si>
+    <t>restuans.WnvPresent</t>
+  </si>
+  <si>
+    <t>salinarius.WnvPresent</t>
+  </si>
+  <si>
+    <t>tarsalis.WnvPresent</t>
+  </si>
+  <si>
+    <t>territans.WnvPresent</t>
+  </si>
+  <si>
+    <t>unspecified.WnvPresent</t>
+  </si>
+  <si>
+    <t>any.WnvPresent</t>
+  </si>
+  <si>
+    <t>comm.180d.violation.cnt</t>
+  </si>
+  <si>
+    <t>BlkGrp.180d.violation.cnt</t>
+  </si>
+  <si>
+    <t>zcta.180d.violation.cnt</t>
+  </si>
+  <si>
+    <t>comm.180d.vacancies.cnt</t>
+  </si>
+  <si>
+    <t>BlkGrp.180d.vacancies.cnt</t>
+  </si>
+  <si>
+    <t>zcta.180d.vacancies.cnt</t>
+  </si>
+  <si>
+    <t>USW00014819_PRCP</t>
+  </si>
+  <si>
+    <t>USW00014819_tavg2</t>
+  </si>
+  <si>
+    <t>USW00014819_TMAX</t>
+  </si>
+  <si>
+    <t>USW00014819_TMIN</t>
+  </si>
+  <si>
+    <t>USW00094846_PRCP</t>
+  </si>
+  <si>
+    <t>USW00094846_tavg2</t>
+  </si>
+  <si>
+    <t>USW00094846_TMAX</t>
+  </si>
+  <si>
+    <t>USW00094846_TMIN</t>
+  </si>
+  <si>
+    <t>variable</t>
+  </si>
+  <si>
+    <t>data type</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>ref.dates (reference data)</t>
+  </si>
+  <si>
+    <t>wnv.traps (trap-level characteristics)</t>
+  </si>
+  <si>
+    <t>logical</t>
+  </si>
+  <si>
+    <t>character (factor)</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>temporal</t>
+  </si>
+  <si>
+    <t>trap</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>zoning</t>
+  </si>
+  <si>
+    <t>5-digit zip code tabulation area (ZCTA)</t>
+  </si>
+  <si>
+    <t>12-digit Census Block Group ID</t>
+  </si>
+  <si>
+    <t>11-digit Census Tract ID</t>
+  </si>
+  <si>
+    <t>Chicago Community Area</t>
+  </si>
+  <si>
+    <t>character</t>
+  </si>
+  <si>
+    <t>numeric</t>
+  </si>
+  <si>
+    <t>latitude (Y)</t>
+  </si>
+  <si>
+    <t>longitude (X)</t>
+  </si>
+  <si>
+    <t>geocoding source (either provided by CDPH via their geocoder or geocoded via google's API)</t>
+  </si>
+  <si>
+    <t>this is a modified version of the trap name received from CDPH in order to correct a few discrepancies between traps</t>
+  </si>
+  <si>
+    <t>integer (factor)</t>
+  </si>
+  <si>
+    <t>Census block group polygons joined to trap lat/lng</t>
+  </si>
+  <si>
+    <t>Census tract polygons joined to lat/lng</t>
+  </si>
+  <si>
+    <t>Chicago community area polygons joined to lat/lng</t>
+  </si>
+  <si>
+    <t>Chicago zoning polygons joined ot lat/lng</t>
+  </si>
+  <si>
+    <t>Census zcta polygons joined to trap lat/lng</t>
+  </si>
+  <si>
+    <t>all partitions are based on calendar years, so I saved the source of truth in the date reference data, and it's easy to join to mosquito trap test data and other data points</t>
+  </si>
+  <si>
+    <t>week of year, numbered sequentially from January</t>
+  </si>
+  <si>
+    <t>day of year, number sequentially from January 1</t>
+  </si>
+  <si>
+    <t>day of week (e.g. Sun/Mon/Tues/etc.) stored as an integer</t>
+  </si>
+  <si>
+    <t>3-character label for day of week (e.g. "Sun")</t>
+  </si>
+  <si>
+    <t>day of complete 2006-18 dataset, numbered sequentially from January 1, 2006</t>
+  </si>
+  <si>
+    <t>week of complete 2006-18 dataset, numbered sequentially from January 2006</t>
+  </si>
+  <si>
+    <t>quarter of year</t>
+  </si>
+  <si>
+    <t>day of month</t>
+  </si>
+  <si>
+    <t>month of year (i.e. January = 1)</t>
+  </si>
+  <si>
+    <t>calendar year</t>
+  </si>
+  <si>
+    <t>date of WNV trap test data and corresponding ancillary data (e.g. weather)</t>
+  </si>
+  <si>
+    <t>indicator for "satellite traps" which are typically located close to a main trap and may have less complete daily/weekly data</t>
+  </si>
+  <si>
+    <t>see zoning descriptions in url and PDF saved in github repo</t>
+  </si>
+  <si>
+    <t>Census 2013-17 American Community Survey (ACS)</t>
+  </si>
+  <si>
+    <t>wnv mosquito trap test data</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>numeric / float</t>
+  </si>
+  <si>
+    <t>socioeconomic status (SES)</t>
+  </si>
+  <si>
+    <t>2017 estimate of proportion of adults age 25+ with less than high school education in the block group (small population area)</t>
+  </si>
+  <si>
+    <t>2017 estimate of proportion of adults age 25+ with less than high school education in the tract (somewhat larger population area)</t>
+  </si>
+  <si>
+    <t>NOAA daily weather data</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>trap type; may be of limited use; in rare cases, there is more than one trap type at the same location &amp; trap name (different dates)</t>
+  </si>
+  <si>
+    <t>culex erraticus -- total count of mosquitos in trap on given test date</t>
+  </si>
+  <si>
+    <t>mosquito trap test data</t>
+  </si>
+  <si>
+    <t>fixed to 2017 estimates; I'll later add year-specific estimates in different variables; I recommend using Block Group-level data when reasonable</t>
+  </si>
+  <si>
+    <t>total count of mosquitos (any species) on given test date</t>
+  </si>
+  <si>
+    <t>culex pipiens -- total count of mosquitos in trap on given test date</t>
+  </si>
+  <si>
+    <t>mix of culex pipiens &amp; culex restuans -- total count of mosquitos in trap on given test date</t>
+  </si>
+  <si>
+    <t>culex restuans -- total count of mosquitos in trap on given test date</t>
+  </si>
+  <si>
+    <t>culex salinarius -- total count of mosquitos in trap on given test date</t>
+  </si>
+  <si>
+    <t>culex tarsalis -- total count of mosquitos in trap on given test date</t>
+  </si>
+  <si>
+    <t>culex territans -- total count of mosquitos in trap on given test date</t>
+  </si>
+  <si>
+    <t>unspecified culex -- total count of mosquitos in trap on given test date</t>
+  </si>
+  <si>
+    <t>culex erraticus -- is West Nile Virus (WNV) test positive for any mosquitos at this trap on this date?</t>
+  </si>
+  <si>
+    <t>culex pipiens -- is West Nile Virus (WNV) test positive for any mosquitos at this trap on this date?</t>
+  </si>
+  <si>
+    <t>mix of culex pipiens &amp; culex restuans -- is West Nile Virus (WNV) test positive for any mosquitos at this trap on this date?</t>
+  </si>
+  <si>
+    <t>culex restuans -- is West Nile Virus (WNV) test positive for any mosquitos at this trap on this date?</t>
+  </si>
+  <si>
+    <t>culex salinarius -- is West Nile Virus (WNV) test positive for any mosquitos at this trap on this date?</t>
+  </si>
+  <si>
+    <t>culex tarsalis -- is West Nile Virus (WNV) test positive for any mosquitos at this trap on this date?</t>
+  </si>
+  <si>
+    <t>culex territans -- is West Nile Virus (WNV) test positive for any mosquitos at this trap on this date?</t>
+  </si>
+  <si>
+    <t>unspecified culex -- is West Nile Virus (WNV) test positive for any mosquitos at this trap on this date?</t>
+  </si>
+  <si>
+    <t>across all species -- is West Nile Virus (WNV) test positive for any mosquitos at this trap on this date?</t>
+  </si>
+  <si>
+    <t>building violations geocoded &amp; joined to Chicago comm. area</t>
+  </si>
+  <si>
+    <t>building violations geocoded &amp; joined to Census block group</t>
+  </si>
+  <si>
+    <t>building violations geocoded &amp; joined to Census tract</t>
+  </si>
+  <si>
+    <t>vacant/abandoned properties geocoded &amp; joined to Chicago comm. area</t>
+  </si>
+  <si>
+    <t>vacant/abandoned properties geocoded &amp; joined to Census block group</t>
+  </si>
+  <si>
+    <t>vacant/abandoned properties geocoded &amp; joined to Census tract</t>
+  </si>
+  <si>
+    <t>neighborhood characteristics</t>
+  </si>
+  <si>
+    <t>precipitation</t>
+  </si>
+  <si>
+    <t>average daily temperature (either provided in NOAA weather data, possibly as average hourly temperature, or calculated as average of min &amp; max daily temperature)</t>
+  </si>
+  <si>
+    <t>maximum daily temperature</t>
+  </si>
+  <si>
+    <t>minimum daily temperature</t>
+  </si>
+  <si>
+    <t>weather (station-specific)</t>
+  </si>
+  <si>
+    <t>as above but for a different station</t>
+  </si>
+  <si>
+    <t>station IDs USW00014819 and USW00094846 are for O'Hare and Midway airports</t>
+  </si>
+  <si>
+    <t>total violations in this geographic area in 180 days prior to test date</t>
+  </si>
+  <si>
+    <t>THIS IS THE MAIN DATASET; TEST DATA IS SPARSELY POPULATED BUT OTHER SOURCES LIKE WEATHER ARE NOT; AFTER CREATING WIDE VERSION OF LAGGED VARIABLES, WE CAN REDUCE BACK TO ROWS WITH TRAP TEST DATA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -184,22 +725,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="13"/>
       <color rgb="FF1C1C1C"/>
       <name val="Arial"/>
@@ -232,8 +758,30 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -252,167 +800,162 @@
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
-    <border diagonalUp="false" diagonalDown="false">
+  <borders count="6">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="hair"/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
-      <top style="hair"/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="31">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="22">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -471,39 +1014,334 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF1C1C1C"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:Q18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F3" colorId="64" zoomScale="86" zoomScaleNormal="86" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S9" activeCellId="0" sqref="S9"/>
+    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="27.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="22.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="50.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="6" style="1" width="13.72"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="11" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="18.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="30.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="26.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="0" width="18.41"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="18" style="0" width="11.52"/>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="50.5703125" style="2" customWidth="1"/>
+    <col min="6" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="12" width="11.5703125"/>
+    <col min="13" max="13" width="18.42578125" customWidth="1"/>
+    <col min="14" max="14" width="30.140625" customWidth="1"/>
+    <col min="15" max="15" width="27" customWidth="1"/>
+    <col min="16" max="17" width="18.42578125" customWidth="1"/>
+    <col min="18" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="5" customFormat="false" ht="31.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="2:17" ht="33" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
         <v>0</v>
       </c>
@@ -532,8 +1370,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="48.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="5" t="n">
+    <row r="6" spans="2:17" ht="48.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="5">
         <v>1</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -545,24 +1383,24 @@
       <c r="E6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="7" t="n">
+      <c r="F6" s="7">
         <v>25</v>
       </c>
-      <c r="G6" s="7" t="n">
+      <c r="G6" s="7">
         <v>75</v>
       </c>
-      <c r="H6" s="7" t="n">
+      <c r="H6" s="7">
         <v>75</v>
       </c>
-      <c r="I6" s="7" t="n">
+      <c r="I6" s="7">
         <v>100</v>
       </c>
-      <c r="J6" s="7" t="n">
+      <c r="J6" s="7">
         <v>100</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="48.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="8" t="n">
+    <row r="7" spans="2:17" ht="48.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="8">
         <v>2</v>
       </c>
       <c r="C7" s="9" t="s">
@@ -574,24 +1412,24 @@
       <c r="E7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="10" t="n">
+      <c r="F7" s="10">
         <v>50</v>
       </c>
-      <c r="G7" s="10" t="n">
+      <c r="G7" s="10">
         <v>75</v>
       </c>
-      <c r="H7" s="10" t="n">
+      <c r="H7" s="10">
         <v>75</v>
       </c>
-      <c r="I7" s="10" t="n">
+      <c r="I7" s="10">
         <v>100</v>
       </c>
-      <c r="J7" s="10" t="n">
+      <c r="J7" s="10">
         <v>25</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="48.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="11" t="n">
+    <row r="8" spans="2:17" ht="48.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="11">
         <v>3</v>
       </c>
       <c r="C8" s="12" t="s">
@@ -603,24 +1441,24 @@
       <c r="E8" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="13" t="n">
+      <c r="F8" s="13">
         <v>100</v>
       </c>
-      <c r="G8" s="13" t="n">
+      <c r="G8" s="13">
         <v>100</v>
       </c>
-      <c r="H8" s="13" t="n">
+      <c r="H8" s="13">
         <v>50</v>
       </c>
-      <c r="I8" s="13" t="n">
+      <c r="I8" s="13">
         <v>0</v>
       </c>
-      <c r="J8" s="13" t="n">
+      <c r="J8" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="48.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="8" t="n">
+    <row r="9" spans="2:17" ht="48.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="8">
         <v>4</v>
       </c>
       <c r="C9" s="9" t="s">
@@ -632,24 +1470,24 @@
       <c r="E9" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="10" t="n">
+      <c r="F9" s="10">
         <v>0</v>
       </c>
-      <c r="G9" s="10" t="n">
+      <c r="G9" s="10">
         <v>0</v>
       </c>
-      <c r="H9" s="10" t="n">
+      <c r="H9" s="10">
         <v>0</v>
       </c>
-      <c r="I9" s="10" t="n">
+      <c r="I9" s="10">
         <v>0</v>
       </c>
-      <c r="J9" s="10" t="n">
+      <c r="J9" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="48.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="14" t="n">
+    <row r="10" spans="2:17" ht="48.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="14">
         <v>5</v>
       </c>
       <c r="C10" s="15" t="s">
@@ -661,24 +1499,24 @@
       <c r="E10" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="16" t="n">
+      <c r="F10" s="16">
         <v>50</v>
       </c>
-      <c r="G10" s="16" t="n">
+      <c r="G10" s="16">
         <v>100</v>
       </c>
-      <c r="H10" s="16" t="n">
+      <c r="H10" s="16">
         <v>100</v>
       </c>
-      <c r="I10" s="16" t="n">
+      <c r="I10" s="16">
         <v>50</v>
       </c>
-      <c r="J10" s="16" t="n">
+      <c r="J10" s="16">
         <v>50</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="48.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="14" t="n">
+    <row r="11" spans="2:17" ht="48.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="14">
         <v>6</v>
       </c>
       <c r="C11" s="15" t="s">
@@ -690,24 +1528,24 @@
       <c r="E11" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="16" t="n">
+      <c r="F11" s="16">
         <v>50</v>
       </c>
-      <c r="G11" s="16" t="n">
+      <c r="G11" s="16">
         <v>100</v>
       </c>
-      <c r="H11" s="16" t="n">
+      <c r="H11" s="16">
         <v>100</v>
       </c>
-      <c r="I11" s="16" t="n">
+      <c r="I11" s="16">
         <v>50</v>
       </c>
-      <c r="J11" s="16" t="n">
+      <c r="J11" s="16">
         <v>50</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="48.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="14" t="n">
+    <row r="12" spans="2:17" ht="48.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="14">
         <v>7</v>
       </c>
       <c r="C12" s="15" t="s">
@@ -719,29 +1557,29 @@
       <c r="E12" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="16" t="n">
+      <c r="F12" s="16">
         <v>0</v>
       </c>
-      <c r="G12" s="16" t="n">
+      <c r="G12" s="16">
         <v>0</v>
       </c>
-      <c r="H12" s="16" t="n">
+      <c r="H12" s="16">
         <v>0</v>
       </c>
-      <c r="I12" s="16" t="n">
+      <c r="I12" s="16">
         <v>0</v>
       </c>
-      <c r="J12" s="16" t="n">
+      <c r="J12" s="16">
         <v>0</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="30.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E13" s="0"/>
-      <c r="F13" s="0"/>
-      <c r="G13" s="0"/>
-      <c r="H13" s="0"/>
-      <c r="I13" s="0"/>
-      <c r="J13" s="0"/>
+    <row r="13" spans="2:17" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
       <c r="M13" s="4" t="s">
         <v>4</v>
       </c>
@@ -758,14 +1596,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="30.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E14" s="0"/>
-      <c r="F14" s="0"/>
-      <c r="G14" s="0"/>
-      <c r="H14" s="0"/>
-      <c r="I14" s="0"/>
-      <c r="J14" s="0"/>
-      <c r="L14" s="17" t="n">
+    <row r="14" spans="2:17" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="L14" s="17">
         <v>0</v>
       </c>
       <c r="M14" s="18" t="s">
@@ -784,16 +1622,16 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="30.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E15" s="0"/>
-      <c r="F15" s="0"/>
-      <c r="G15" s="0"/>
-      <c r="H15" s="0"/>
+    <row r="15" spans="2:17" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
       <c r="I15" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="J15" s="0"/>
-      <c r="L15" s="17" t="n">
+      <c r="J15"/>
+      <c r="L15" s="17">
         <v>25</v>
       </c>
       <c r="M15" s="18" t="s">
@@ -812,14 +1650,14 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="30.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E16" s="0"/>
-      <c r="F16" s="0"/>
-      <c r="G16" s="0"/>
-      <c r="H16" s="0"/>
-      <c r="I16" s="0"/>
-      <c r="J16" s="0"/>
-      <c r="L16" s="17" t="n">
+    <row r="16" spans="2:17" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="L16" s="17">
         <v>50</v>
       </c>
       <c r="M16" s="18" t="s">
@@ -838,14 +1676,14 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="30.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E17" s="0"/>
-      <c r="F17" s="0"/>
-      <c r="G17" s="0"/>
-      <c r="H17" s="0"/>
-      <c r="I17" s="0"/>
-      <c r="J17" s="0"/>
-      <c r="L17" s="17" t="n">
+    <row r="17" spans="5:17" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="L17" s="17">
         <v>75</v>
       </c>
       <c r="M17" s="18" t="s">
@@ -857,21 +1695,21 @@
       <c r="O17" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="P17" s="0" t="s">
+      <c r="P17" t="s">
         <v>33</v>
       </c>
       <c r="Q17" s="18" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="30.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" spans="5:17" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E18" s="20"/>
       <c r="F18" s="21"/>
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
       <c r="J18" s="21"/>
-      <c r="L18" s="17" t="n">
+      <c r="L18" s="17">
         <v>100</v>
       </c>
       <c r="M18" s="18" t="s">
@@ -1034,12 +1872,1417 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F16"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="71.140625" style="29" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="22"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D3" s="22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D4" s="22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="24" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F66"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomRight" activeCell="B69" sqref="B69"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.5703125" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.28515625" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.28515625" style="26" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="26"/>
+    <col min="7" max="16384" width="9.140625" style="22"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="E23" s="26" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="E25" s="26" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="E26" s="26" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="E27" s="26" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="E28" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="F28" s="26" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="E29" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="F29" s="26" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="E30" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="F30" s="26" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="E31" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="F31" s="26" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="E32" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="F32" s="26" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="B33" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="E33" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="F33" s="26" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="E34" s="26" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="B35" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="E35" s="26" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="B36" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="E36" s="26" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="E37" s="26" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="B38" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="E38" s="26" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="B39" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="D39" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="E39" s="26" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="B40" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="D40" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="E40" s="26" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="B41" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="C41" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="D41" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="E41" s="26" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="B42" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="C42" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="D42" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="E42" s="26" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="B43" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="C43" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="D43" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="E43" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="F43" s="27"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="B44" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C44" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="D44" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="E44" s="26" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="B45" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C45" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="D45" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="E45" s="26" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="B46" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C46" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="D46" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="E46" s="26" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="B47" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C47" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="D47" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="E47" s="26" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="B48" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C48" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="D48" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="E48" s="26" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="B49" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C49" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="D49" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="E49" s="26" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="B50" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C50" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="D50" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="E50" s="26" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="B51" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C51" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="D51" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="E51" s="26" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="B52" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="C52" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="D52" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="E52" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="F52" s="27"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="B53" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="C53" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="D53" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="E53" s="26" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="B54" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="C54" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="D54" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="E54" s="26" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="B55" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="C55" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="D55" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="E55" s="26" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="B56" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="C56" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="D56" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="E56" s="26" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="B57" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="C57" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="D57" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="E57" s="26" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="B58" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="C58" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="D58" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="E58" s="26" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="B59" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="C59" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="D59" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="E59" s="26" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="B60" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="C60" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="D60" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="E60" s="26" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="B61" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="C61" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="D61" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="E61" s="26" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="B62" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="C62" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="D62" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="E62" s="26" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="B63" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="C63" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="D63" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="E63" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="F63" s="26" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="B64" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="C64" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="D64" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="E64" s="26" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="B65" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="C65" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="D65" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="E65" s="26" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="B66" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="C66" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="D66" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="E66" s="26" t="s">
+        <v>226</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/DataDictionary.xlsx
+++ b/docs/DataDictionary.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="16380" windowHeight="8130" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="16380" windowHeight="8130" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="datasets" sheetId="2" r:id="rId2"/>
-    <sheet name="wnv.trap.date.rev2" sheetId="4" r:id="rId3"/>
+    <sheet name="data sources" sheetId="5" r:id="rId2"/>
+    <sheet name="tables" sheetId="2" r:id="rId3"/>
+    <sheet name="wnv.trap.date.rev2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="287">
   <si>
     <t>Data ID</t>
   </si>
@@ -711,13 +712,184 @@
   </si>
   <si>
     <t>THIS IS THE MAIN DATASET; TEST DATA IS SPARSELY POPULATED BUT OTHER SOURCES LIKE WEATHER ARE NOT; AFTER CREATING WIDE VERSION OF LAGGED VARIABLES, WE CAN REDUCE BACK TO ROWS WITH TRAP TEST DATA</t>
+  </si>
+  <si>
+    <t>kaggle</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>weather</t>
+  </si>
+  <si>
+    <t>WNV trap results</t>
+  </si>
+  <si>
+    <t>useful for modeling</t>
+  </si>
+  <si>
+    <t>useful for visualization</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>only covers 2007-14</t>
+  </si>
+  <si>
+    <t>Frontier Weather</t>
+  </si>
+  <si>
+    <t>don't really need it since we got NOAA data; does have heating degree days and cooling degree days calculated</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>mosquito spray data</t>
+  </si>
+  <si>
+    <t>Unsure</t>
+  </si>
+  <si>
+    <t>not enough data to use in main predictive models, but we might mine it to figure out something about spraying effectiveness and latent (unobserved) spraying in other years</t>
+  </si>
+  <si>
+    <t>we'll just use the complete set from CDPH instead</t>
+  </si>
+  <si>
+    <t>Chicago Department of Public Helath</t>
+  </si>
+  <si>
+    <t>WNV trap results, 2007-18</t>
+  </si>
+  <si>
+    <t>weather, ~1960-2018</t>
+  </si>
+  <si>
+    <t>weather, 2006-18</t>
+  </si>
+  <si>
+    <t>out of scope</t>
+  </si>
+  <si>
+    <t>Sociodemographic data, 2009-2018</t>
+  </si>
+  <si>
+    <t>Geospatial Hospital Locations</t>
+  </si>
+  <si>
+    <t>Geospatial School Locations</t>
+  </si>
+  <si>
+    <t>Geospatial Senior Center Locations</t>
+  </si>
+  <si>
+    <t>Chicago Data Portal</t>
+  </si>
+  <si>
+    <t>Building Violations</t>
+  </si>
+  <si>
+    <t>Vacant &amp; Abandoned Buildings</t>
+  </si>
+  <si>
+    <t>Problem Landlords</t>
+  </si>
+  <si>
+    <t>Insufficient volume</t>
+  </si>
+  <si>
+    <t>Census</t>
+  </si>
+  <si>
+    <t>Geospatial polygons (zip code, block group, etc.)</t>
+  </si>
+  <si>
+    <t>Geospatial Chicago community areas (polygons)</t>
+  </si>
+  <si>
+    <t>Illinois Department of Public Health</t>
+  </si>
+  <si>
+    <t>Hospital Locations</t>
+  </si>
+  <si>
+    <t>skip since we have working data from Cook County</t>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>Google trends</t>
+  </si>
+  <si>
+    <t>search frequency for mosquito bites and related terms</t>
+  </si>
+  <si>
+    <t>Ordinance Violations</t>
+  </si>
+  <si>
+    <t>will probably skip since we have building violation data</t>
+  </si>
+  <si>
+    <t>Geospatial zoning data (polygons)</t>
+  </si>
+  <si>
+    <t>data management</t>
+  </si>
+  <si>
+    <t>R script</t>
+  </si>
+  <si>
+    <t>dates (reference data), 2006-18</t>
+  </si>
+  <si>
+    <t>master list of dates from 2006-18; trap results and other data can be joined to it on date</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>aggregated to trap/date level</t>
+  </si>
+  <si>
+    <t>joins to trap results on geography (Block Group or tract) and year</t>
+  </si>
+  <si>
+    <t>joins to time series data on month</t>
+  </si>
+  <si>
+    <t>joins to other data on Community Area name</t>
+  </si>
+  <si>
+    <t>joins to other data on geographic identifiers (block group GeoId or tract GeoId or 5-digit zip code tabulation area)</t>
+  </si>
+  <si>
+    <t>aggregated to geographic area (e.g. block group, tract or community area) and date; joins to trap results on the combination of geography/date</t>
+  </si>
+  <si>
+    <t>mainly for mapping purposes, but we could calculate distances to each hospital from other geographic points</t>
+  </si>
+  <si>
+    <t>mainly for mapping purposes, but we could calculate distances</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>TBD; we have geographic points and dates; I appended indicators for geographic areas (Census block group, tract, community area)</t>
+  </si>
+  <si>
+    <t>jonis to other data on date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -779,6 +951,24 @@
       <sz val="9"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -872,7 +1062,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -948,6 +1138,28 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1322,7 +1534,7 @@
   <dimension ref="B5:Q18"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A3" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+      <selection activeCell="C6" sqref="C6:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1883,10 +2095,477 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="33" style="31" customWidth="1"/>
+    <col min="2" max="2" width="42.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48.140625" style="31" customWidth="1"/>
+    <col min="6" max="6" width="41.42578125" style="31" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>231</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>234</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>235</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="36" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="39" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="38" t="s">
+        <v>272</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>273</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>240</v>
+      </c>
+      <c r="D2" s="39" t="s">
+        <v>236</v>
+      </c>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>236</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>236</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>233</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>236</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>236</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>244</v>
+      </c>
+      <c r="F4" s="32" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A5" s="31" t="s">
+        <v>230</v>
+      </c>
+      <c r="B5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C5" t="s">
+        <v>242</v>
+      </c>
+      <c r="D5" t="s">
+        <v>236</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>243</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>248</v>
+      </c>
+      <c r="C6" t="s">
+        <v>240</v>
+      </c>
+      <c r="D6" t="s">
+        <v>236</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="33" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>247</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>236</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>236</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>239</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="31" t="s">
+        <v>245</v>
+      </c>
+      <c r="B8" t="s">
+        <v>246</v>
+      </c>
+      <c r="C8" t="s">
+        <v>240</v>
+      </c>
+      <c r="D8" t="s">
+        <v>240</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>250</v>
+      </c>
+      <c r="C9" t="s">
+        <v>240</v>
+      </c>
+      <c r="D9" t="s">
+        <v>240</v>
+      </c>
+      <c r="F9" s="31" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="B10" t="s">
+        <v>266</v>
+      </c>
+      <c r="C10" t="s">
+        <v>240</v>
+      </c>
+      <c r="D10" t="s">
+        <v>236</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="F10" s="31" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="31" t="s">
+        <v>259</v>
+      </c>
+      <c r="B11" t="s">
+        <v>260</v>
+      </c>
+      <c r="C11" t="s">
+        <v>236</v>
+      </c>
+      <c r="D11" t="s">
+        <v>240</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="31" t="s">
+        <v>254</v>
+      </c>
+      <c r="B12" t="s">
+        <v>261</v>
+      </c>
+      <c r="C12" t="s">
+        <v>240</v>
+      </c>
+      <c r="D12" t="s">
+        <v>240</v>
+      </c>
+      <c r="F12" s="31" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="31" t="s">
+        <v>254</v>
+      </c>
+      <c r="B13" t="s">
+        <v>270</v>
+      </c>
+      <c r="C13" t="s">
+        <v>240</v>
+      </c>
+      <c r="D13" t="s">
+        <v>242</v>
+      </c>
+      <c r="F13" s="40" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A14" s="31" t="s">
+        <v>254</v>
+      </c>
+      <c r="B14" t="s">
+        <v>255</v>
+      </c>
+      <c r="C14" t="s">
+        <v>240</v>
+      </c>
+      <c r="D14" t="s">
+        <v>236</v>
+      </c>
+      <c r="F14" s="31" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="B15" s="35" t="s">
+        <v>268</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="D15" s="35" t="s">
+        <v>236</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="F15" s="40" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A16" s="31" t="s">
+        <v>254</v>
+      </c>
+      <c r="B16" t="s">
+        <v>256</v>
+      </c>
+      <c r="C16" t="s">
+        <v>240</v>
+      </c>
+      <c r="D16" t="s">
+        <v>236</v>
+      </c>
+      <c r="F16" s="31" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="B17" s="35" t="s">
+        <v>257</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>236</v>
+      </c>
+      <c r="D17" s="35" t="s">
+        <v>236</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>258</v>
+      </c>
+      <c r="F17" s="40" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>251</v>
+      </c>
+      <c r="C18" t="s">
+        <v>236</v>
+      </c>
+      <c r="D18" t="s">
+        <v>240</v>
+      </c>
+      <c r="F18" s="31" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="34" t="s">
+        <v>262</v>
+      </c>
+      <c r="B19" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="C19" s="35" t="s">
+        <v>236</v>
+      </c>
+      <c r="D19" s="35" t="s">
+        <v>236</v>
+      </c>
+      <c r="E19" s="34" t="s">
+        <v>264</v>
+      </c>
+      <c r="F19" s="40" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>252</v>
+      </c>
+      <c r="C20" t="s">
+        <v>236</v>
+      </c>
+      <c r="D20" t="s">
+        <v>240</v>
+      </c>
+      <c r="F20" s="31" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="31" t="s">
+        <v>254</v>
+      </c>
+      <c r="B21" t="s">
+        <v>253</v>
+      </c>
+      <c r="C21" t="s">
+        <v>236</v>
+      </c>
+      <c r="D21" t="s">
+        <v>240</v>
+      </c>
+      <c r="F21" s="31" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" t="s">
+        <v>236</v>
+      </c>
+      <c r="D22" t="s">
+        <v>240</v>
+      </c>
+      <c r="F22" s="31" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="33" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="33" t="s">
+        <v>242</v>
+      </c>
+      <c r="D23" s="33" t="s">
+        <v>242</v>
+      </c>
+      <c r="E23" s="32" t="s">
+        <v>249</v>
+      </c>
+      <c r="F23" s="40" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="33" t="s">
+        <v>242</v>
+      </c>
+      <c r="D24" s="33" t="s">
+        <v>242</v>
+      </c>
+      <c r="E24" s="32" t="s">
+        <v>249</v>
+      </c>
+      <c r="F24" s="40" t="s">
+        <v>275</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2112,14 +2791,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomRight" activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>

--- a/docs/DataDictionary.xlsx
+++ b/docs/DataDictionary.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="1620" windowWidth="20960" windowHeight="14300" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Data Classified" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="300">
   <si>
     <t>Data ID</t>
   </si>
@@ -906,6 +906,36 @@
   </si>
   <si>
     <t>KEEP</t>
+  </si>
+  <si>
+    <t>category_few_letters</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>loc</t>
+  </si>
+  <si>
+    <t>nbrhud</t>
+  </si>
+  <si>
+    <t>wea</t>
+  </si>
+  <si>
+    <t>mos</t>
+  </si>
+  <si>
+    <t>ses</t>
+  </si>
+  <si>
+    <t>zone</t>
+  </si>
+  <si>
+    <t>part</t>
+  </si>
+  <si>
+    <t>Cleaned var names - intermediate step</t>
   </si>
 </sst>
 </file>
@@ -1300,7 +1330,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1328,46 +1358,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2267,8 +2257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView showGridLines="0" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3062,1175 +3052,1639 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F66"/>
+  <dimension ref="A1:H66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B69" sqref="B69"/>
+      <selection pane="bottomRight" activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="28.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.1640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="47.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.33203125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="8.83203125" style="17"/>
-    <col min="7" max="16384" width="8.83203125" style="13"/>
+    <col min="1" max="1" width="20.33203125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="28.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" style="13" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.83203125" style="17" customWidth="1"/>
+    <col min="8" max="8" width="8.83203125" style="17"/>
+    <col min="9" max="16384" width="8.83203125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="C1" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="D1" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="E1" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="H1" s="16" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="13" t="s">
-        <v>79</v>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="13" t="str">
+        <f>_xlfn.CONCAT(E2,"_",B2,"=",B2)</f>
+        <v>t_date=date</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>79</v>
       </c>
       <c r="C2" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="E2" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="F2" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="G2" s="17" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="13" t="str">
+        <f t="shared" ref="A3:A66" si="0">_xlfn.CONCAT(E3,"_",B3,"=",B3)</f>
+        <v>t_yr=yr</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="C3" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="D3" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="E3" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="F3" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="G3" s="17" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>t_mo=mo</v>
+      </c>
+      <c r="B4" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="C4" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="D4" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="E4" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="F4" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="G4" s="17" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="13" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>t_day=day</v>
+      </c>
+      <c r="B5" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="C5" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="D5" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="E5" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="F5" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="G5" s="17" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="13" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>t_qtr=qtr</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="C6" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="D6" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="E6" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="F6" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="G6" s="17" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="13" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>t_wk=wk</v>
+      </c>
+      <c r="B7" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="C7" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="D7" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="E7" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="F7" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="G7" s="17" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="13" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>t_day.of.yr=day.of.yr</v>
+      </c>
+      <c r="B8" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="C8" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="D8" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="E8" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="F8" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="G8" s="17" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="13" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>t_day.of.wk=day.of.wk</v>
+      </c>
+      <c r="B9" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="C9" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="D9" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="E9" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="F9" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="G9" s="17" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="13" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>t_day.of.wk.name=day.of.wk.name</v>
+      </c>
+      <c r="B10" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="C10" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="D10" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="E10" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="F10" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="G10" s="17" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="13" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>t_eval.day=eval.day</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="C11" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="D11" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="E11" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="F11" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="G11" s="17" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="13" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>t_eval.wk=eval.wk</v>
+      </c>
+      <c r="B12" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="C12" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="D12" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="E12" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="F12" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="G12" s="17" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="13" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>part_train=train</v>
+      </c>
+      <c r="B13" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="C13" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="D13" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="E13" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="F13" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="G13" s="17" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="13" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>part_validate=validate</v>
+      </c>
+      <c r="B14" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="C14" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="D14" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="E14" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="F14" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="G14" s="17" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" s="13" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>part_test=test</v>
+      </c>
+      <c r="B15" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="C15" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="D15" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="E15" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="F15" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="G15" s="17" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="13" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>part_partition=partition</v>
+      </c>
+      <c r="B16" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="C16" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="D16" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="E16" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="F16" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="G16" s="17" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="13" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>trap_trap.name=trap.name</v>
+      </c>
+      <c r="B17" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="C17" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="D17" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="E17" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="F17" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="G17" s="17" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="13" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>loc_lat=lat</v>
+      </c>
+      <c r="B18" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="C18" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="D18" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="E18" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="F18" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="G18" s="17" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="13" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>loc_lng=lng</v>
+      </c>
+      <c r="B19" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="C19" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="D19" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="E19" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="F19" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="G19" s="17" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="13" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A20" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>loc_lat.lng.src=lat.lng.src</v>
+      </c>
+      <c r="B20" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="C20" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="D20" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="E20" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="F20" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="E20" s="17" t="s">
+      <c r="G20" s="17" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="13" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A21" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>trap_satellite.ind=satellite.ind</v>
+      </c>
+      <c r="B21" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="C21" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="D21" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="E21" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="E21" s="17" t="s">
+      <c r="F21" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="G21" s="17" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="13" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A22" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>loc_ZCTA5CE10=ZCTA5CE10</v>
+      </c>
+      <c r="B22" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="C22" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="D22" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="E22" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="F22" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="E22" s="17" t="s">
+      <c r="G22" s="17" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="13" t="s">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A23" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>loc_BlkGrp.geoid=BlkGrp.geoid</v>
+      </c>
+      <c r="B23" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="C23" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="D23" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="E23" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="F23" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="E23" s="17" t="s">
+      <c r="G23" s="17" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="13" t="s">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A24" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>loc_Tract.geoid=Tract.geoid</v>
+      </c>
+      <c r="B24" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="C24" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="D24" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="E24" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="F24" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="E24" s="17" t="s">
+      <c r="G24" s="17" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="13" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A25" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>loc_community=community</v>
+      </c>
+      <c r="B25" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="C25" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="D25" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="E25" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="F25" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="E25" s="17" t="s">
+      <c r="G25" s="17" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" s="13" t="s">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A26" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>zone_zone_class=zone_class</v>
+      </c>
+      <c r="B26" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="C26" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="D26" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="E26" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="F26" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="E26" s="17" t="s">
+      <c r="G26" s="17" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="13" t="s">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A27" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>zone_zone_type=zone_type</v>
+      </c>
+      <c r="B27" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="C27" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="D27" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="E27" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="F27" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="E27" s="17" t="s">
+      <c r="G27" s="17" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A28" s="13" t="s">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A28" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>ses_LT_HS_pct__BlkGrp2017=LT_HS_pct__BlkGrp2017</v>
+      </c>
+      <c r="B28" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="C28" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="D28" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="E28" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="F28" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="E28" s="17" t="s">
+      <c r="G28" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="F28" s="17" t="s">
+      <c r="H28" s="17" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29" s="13" t="s">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A29" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>ses_median_HHInc__BlkGrp2017=median_HHInc__BlkGrp2017</v>
+      </c>
+      <c r="B29" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="C29" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="D29" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="E29" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="F29" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="E29" s="17" t="s">
+      <c r="G29" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="F29" s="17" t="s">
+      <c r="H29" s="17" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A30" s="13" t="s">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A30" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>ses_LT_Pov_pct__BlkGrp2017=LT_Pov_pct__BlkGrp2017</v>
+      </c>
+      <c r="B30" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="C30" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="D30" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="E30" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="F30" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="E30" s="17" t="s">
+      <c r="G30" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="F30" s="17" t="s">
+      <c r="H30" s="17" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A31" s="13" t="s">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A31" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>ses_LT_HS_pct__Tract2017=LT_HS_pct__Tract2017</v>
+      </c>
+      <c r="B31" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="C31" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="D31" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="E31" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="F31" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="E31" s="17" t="s">
+      <c r="G31" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="F31" s="17" t="s">
+      <c r="H31" s="17" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A32" s="13" t="s">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A32" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>ses_median_HHInc__Tract2017=median_HHInc__Tract2017</v>
+      </c>
+      <c r="B32" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="C32" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="D32" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="E32" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="F32" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="E32" s="17" t="s">
+      <c r="G32" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="F32" s="17" t="s">
+      <c r="H32" s="17" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A33" s="13" t="s">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A33" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>ses_LT_Pov_pct__Tract2017=LT_Pov_pct__Tract2017</v>
+      </c>
+      <c r="B33" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="C33" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="D33" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="E33" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="F33" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="E33" s="17" t="s">
+      <c r="G33" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="F33" s="17" t="s">
+      <c r="H33" s="17" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A34" s="13" t="s">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A34" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>trap_trap_type=trap_type</v>
+      </c>
+      <c r="B34" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="C34" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="D34" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="E34" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="E34" s="17" t="s">
+      <c r="F34" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="G34" s="17" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A35" s="13" t="s">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A35" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>mos_erraticus.NumMosquitos=erraticus.NumMosquitos</v>
+      </c>
+      <c r="B35" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="C35" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="D35" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="E35" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="F35" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="E35" s="17" t="s">
+      <c r="G35" s="17" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A36" s="13" t="s">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A36" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>mos_pipiens.NumMosquitos=pipiens.NumMosquitos</v>
+      </c>
+      <c r="B36" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="C36" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="D36" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="E36" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="F36" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="E36" s="17" t="s">
+      <c r="G36" s="17" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A37" s="13" t="s">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A37" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>mos_pipiens_restuans.NumMosquitos=pipiens_restuans.NumMosquitos</v>
+      </c>
+      <c r="B37" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="C37" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="D37" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="D37" s="13" t="s">
+      <c r="E37" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="F37" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="E37" s="17" t="s">
+      <c r="G37" s="17" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A38" s="13" t="s">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A38" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>mos_restuans.NumMosquitos=restuans.NumMosquitos</v>
+      </c>
+      <c r="B38" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="C38" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="D38" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="D38" s="13" t="s">
+      <c r="E38" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="F38" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="E38" s="17" t="s">
+      <c r="G38" s="17" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A39" s="13" t="s">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A39" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>mos_salinarius.NumMosquitos=salinarius.NumMosquitos</v>
+      </c>
+      <c r="B39" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="C39" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="D39" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="D39" s="13" t="s">
+      <c r="E39" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="F39" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="E39" s="17" t="s">
+      <c r="G39" s="17" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A40" s="13" t="s">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A40" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>mos_tarsalis.NumMosquitos=tarsalis.NumMosquitos</v>
+      </c>
+      <c r="B40" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="C40" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="D40" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="D40" s="13" t="s">
+      <c r="E40" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="F40" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="E40" s="17" t="s">
+      <c r="G40" s="17" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A41" s="13" t="s">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A41" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>mos_territans.NumMosquitos=territans.NumMosquitos</v>
+      </c>
+      <c r="B41" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="C41" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="D41" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="D41" s="13" t="s">
+      <c r="E41" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="F41" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="E41" s="17" t="s">
+      <c r="G41" s="17" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A42" s="13" t="s">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A42" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>mos_unspecified.NumMosquitos=unspecified.NumMosquitos</v>
+      </c>
+      <c r="B42" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="C42" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="D42" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="D42" s="13" t="s">
+      <c r="E42" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="F42" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="E42" s="17" t="s">
+      <c r="G42" s="17" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="43" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="15" t="s">
+    <row r="43" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>mos_tot.NumMosquitos=tot.NumMosquitos</v>
+      </c>
+      <c r="B43" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="B43" s="15" t="s">
+      <c r="C43" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="C43" s="15" t="s">
+      <c r="D43" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="D43" s="15" t="s">
+      <c r="E43" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="F43" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="E43" s="18" t="s">
+      <c r="G43" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="F43" s="18"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A44" s="13" t="s">
+      <c r="H43" s="18"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A44" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>mos_erraticus.WnvPresent=erraticus.WnvPresent</v>
+      </c>
+      <c r="B44" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="C44" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="D44" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="D44" s="13" t="s">
+      <c r="E44" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="F44" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="E44" s="17" t="s">
+      <c r="G44" s="17" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A45" s="13" t="s">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A45" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>mos_pipiens.WnvPresent=pipiens.WnvPresent</v>
+      </c>
+      <c r="B45" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="C45" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="D45" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="D45" s="13" t="s">
+      <c r="E45" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="F45" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="E45" s="17" t="s">
+      <c r="G45" s="17" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A46" s="13" t="s">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A46" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>mos_pipiens_restuans.WnvPresent=pipiens_restuans.WnvPresent</v>
+      </c>
+      <c r="B46" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="B46" s="13" t="s">
+      <c r="C46" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="D46" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="D46" s="13" t="s">
+      <c r="E46" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="F46" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="E46" s="17" t="s">
+      <c r="G46" s="17" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A47" s="13" t="s">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A47" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>mos_restuans.WnvPresent=restuans.WnvPresent</v>
+      </c>
+      <c r="B47" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="B47" s="13" t="s">
+      <c r="C47" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="D47" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="D47" s="13" t="s">
+      <c r="E47" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="F47" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="E47" s="17" t="s">
+      <c r="G47" s="17" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A48" s="13" t="s">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A48" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>mos_salinarius.WnvPresent=salinarius.WnvPresent</v>
+      </c>
+      <c r="B48" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="C48" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="D48" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="D48" s="13" t="s">
+      <c r="E48" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="F48" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="E48" s="17" t="s">
+      <c r="G48" s="17" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A49" s="13" t="s">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A49" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>mos_tarsalis.WnvPresent=tarsalis.WnvPresent</v>
+      </c>
+      <c r="B49" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="B49" s="13" t="s">
+      <c r="C49" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="C49" s="13" t="s">
+      <c r="D49" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="D49" s="13" t="s">
+      <c r="E49" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="F49" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="E49" s="17" t="s">
+      <c r="G49" s="17" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A50" s="13" t="s">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A50" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>mos_territans.WnvPresent=territans.WnvPresent</v>
+      </c>
+      <c r="B50" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="B50" s="13" t="s">
+      <c r="C50" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="D50" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="D50" s="13" t="s">
+      <c r="E50" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="F50" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="E50" s="17" t="s">
+      <c r="G50" s="17" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A51" s="13" t="s">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A51" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>mos_unspecified.WnvPresent=unspecified.WnvPresent</v>
+      </c>
+      <c r="B51" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="B51" s="13" t="s">
+      <c r="C51" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="C51" s="13" t="s">
+      <c r="D51" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="D51" s="13" t="s">
+      <c r="E51" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="F51" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="E51" s="17" t="s">
+      <c r="G51" s="17" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="52" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="15" t="s">
+    <row r="52" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>mos_any.WnvPresent=any.WnvPresent</v>
+      </c>
+      <c r="B52" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="B52" s="15" t="s">
+      <c r="C52" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="C52" s="15" t="s">
+      <c r="D52" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="D52" s="15" t="s">
+      <c r="E52" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="F52" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="E52" s="18" t="s">
+      <c r="G52" s="18" t="s">
         <v>212</v>
       </c>
-      <c r="F52" s="18"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A53" s="13" t="s">
+      <c r="H52" s="18"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A53" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>nbrhud_comm.180d.violation.cnt=comm.180d.violation.cnt</v>
+      </c>
+      <c r="B53" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="B53" s="13" t="s">
+      <c r="C53" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="C53" s="13" t="s">
+      <c r="D53" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="D53" s="13" t="s">
+      <c r="E53" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="F53" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="E53" s="17" t="s">
+      <c r="G53" s="17" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A54" s="13" t="s">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A54" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>nbrhud_BlkGrp.180d.violation.cnt=BlkGrp.180d.violation.cnt</v>
+      </c>
+      <c r="B54" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="B54" s="13" t="s">
+      <c r="C54" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="C54" s="13" t="s">
+      <c r="D54" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="D54" s="13" t="s">
+      <c r="E54" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="F54" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="E54" s="17" t="s">
+      <c r="G54" s="17" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A55" s="13" t="s">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A55" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>nbrhud_zcta.180d.violation.cnt=zcta.180d.violation.cnt</v>
+      </c>
+      <c r="B55" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="B55" s="13" t="s">
+      <c r="C55" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="C55" s="13" t="s">
+      <c r="D55" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="D55" s="13" t="s">
+      <c r="E55" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="F55" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="E55" s="17" t="s">
+      <c r="G55" s="17" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A56" s="13" t="s">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A56" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>nbrhud_comm.180d.vacancies.cnt=comm.180d.vacancies.cnt</v>
+      </c>
+      <c r="B56" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="B56" s="13" t="s">
+      <c r="C56" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="C56" s="13" t="s">
+      <c r="D56" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="D56" s="13" t="s">
+      <c r="E56" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="F56" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="E56" s="17" t="s">
+      <c r="G56" s="17" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A57" s="13" t="s">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A57" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>nbrhud_BlkGrp.180d.vacancies.cnt=BlkGrp.180d.vacancies.cnt</v>
+      </c>
+      <c r="B57" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="B57" s="13" t="s">
+      <c r="C57" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="C57" s="13" t="s">
+      <c r="D57" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="D57" s="13" t="s">
+      <c r="E57" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="F57" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="E57" s="17" t="s">
+      <c r="G57" s="17" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A58" s="13" t="s">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A58" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>nbrhud_zcta.180d.vacancies.cnt=zcta.180d.vacancies.cnt</v>
+      </c>
+      <c r="B58" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="B58" s="13" t="s">
+      <c r="C58" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="C58" s="13" t="s">
+      <c r="D58" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="D58" s="13" t="s">
+      <c r="E58" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="F58" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="E58" s="17" t="s">
+      <c r="G58" s="17" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A59" s="13" t="s">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A59" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>wea_USW00014819_PRCP=USW00014819_PRCP</v>
+      </c>
+      <c r="B59" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="B59" s="13" t="s">
+      <c r="C59" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="C59" s="13" t="s">
+      <c r="D59" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="D59" s="13" t="s">
+      <c r="E59" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="F59" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="E59" s="17" t="s">
+      <c r="G59" s="17" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A60" s="13" t="s">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A60" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>wea_USW00014819_tavg2=USW00014819_tavg2</v>
+      </c>
+      <c r="B60" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="B60" s="13" t="s">
+      <c r="C60" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="C60" s="13" t="s">
+      <c r="D60" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="D60" s="13" t="s">
+      <c r="E60" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="F60" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="E60" s="17" t="s">
+      <c r="G60" s="17" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A61" s="13" t="s">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A61" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>wea_USW00014819_TMAX=USW00014819_TMAX</v>
+      </c>
+      <c r="B61" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="B61" s="13" t="s">
+      <c r="C61" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="C61" s="13" t="s">
+      <c r="D61" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="D61" s="13" t="s">
+      <c r="E61" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="F61" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="E61" s="17" t="s">
+      <c r="G61" s="17" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A62" s="13" t="s">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A62" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>wea_USW00014819_TMIN=USW00014819_TMIN</v>
+      </c>
+      <c r="B62" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="B62" s="13" t="s">
+      <c r="C62" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="C62" s="13" t="s">
+      <c r="D62" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="D62" s="13" t="s">
+      <c r="E62" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="F62" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="E62" s="17" t="s">
+      <c r="G62" s="17" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A63" s="13" t="s">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A63" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>wea_USW00094846_PRCP=USW00094846_PRCP</v>
+      </c>
+      <c r="B63" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="B63" s="13" t="s">
+      <c r="C63" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="C63" s="13" t="s">
+      <c r="D63" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="D63" s="13" t="s">
+      <c r="E63" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="F63" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="E63" s="17" t="s">
+      <c r="G63" s="17" t="s">
         <v>225</v>
       </c>
-      <c r="F63" s="17" t="s">
+      <c r="H63" s="17" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A64" s="13" t="s">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A64" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>wea_USW00094846_tavg2=USW00094846_tavg2</v>
+      </c>
+      <c r="B64" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="B64" s="13" t="s">
+      <c r="C64" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="C64" s="13" t="s">
+      <c r="D64" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="D64" s="13" t="s">
+      <c r="E64" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="F64" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="E64" s="17" t="s">
+      <c r="G64" s="17" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A65" s="13" t="s">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A65" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>wea_USW00094846_TMAX=USW00094846_TMAX</v>
+      </c>
+      <c r="B65" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="B65" s="13" t="s">
+      <c r="C65" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="C65" s="13" t="s">
+      <c r="D65" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="D65" s="13" t="s">
+      <c r="E65" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="F65" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="E65" s="17" t="s">
+      <c r="G65" s="17" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A66" s="13" t="s">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A66" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>wea_USW00094846_TMIN=USW00094846_TMIN</v>
+      </c>
+      <c r="B66" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="B66" s="13" t="s">
+      <c r="C66" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="C66" s="13" t="s">
+      <c r="D66" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="D66" s="13" t="s">
+      <c r="E66" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="F66" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="E66" s="17" t="s">
+      <c r="G66" s="17" t="s">
         <v>225</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>